--- a/consoles.xlsx
+++ b/consoles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,4357 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Console PlayStation 5 Slim Sony, SSD 1TB, Edição Digital, Com Controle Sem Fio DualSense, Branco + 2 Jogos Digitais - 1000038914</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>R$ 3.533,07</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 379,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Console PlayStation 5 Slim Sony, SSD 1TB, Com Controle Sem Fio DualSense, Branco + 2 Jogos - 1000038899</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>R$ 3.812,07</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 409,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Console PlayStation 5 Pro Sony, SSD 2TB, Com Controle Sem Fio DualSense, Branco - 1000046552</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>R$ 6.416,91</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 689,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Console Nintendo Switch + Joy-Con Neon + Mario Kart 8 Deluxe + 3 Meses de Assinatura Nintendo Switch Online, Azul e Vermelho - HBDSKABL2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>R$ 1.979,10</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 219,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Console Nintendo Switch OLED + Super Mario Bros Wonder + 12 meses do Nintendo Switch Online</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>R$ 2.444,97</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 262,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Console Nintendo Switch OLED, Branco + Mario Kart 8 Deluxe + 3 meses do Nintendo Switch Online</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R$ 2.510,07</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 269,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Console PlayStation 5 Slim Sony, SSD 1TB, Controle Sem Fio DualSense, Branco + 2 Jogos- 1000038899</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>R$ 3.609,05</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 379,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Console Nintendo Switch Lite, Turquesa - HBHSBAZA2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>R$ 1.299,90</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 136,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Console Playstation 5 Sony Slim, SSD 1TB, Controle Sem Fio Dualsense, Edição Digital, Branco, Returnal E Ratchet E Clank</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>R$ 3.649,00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 392,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Console Microsoft Xbox Series S, 512GB, Controle e Cabos</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>R$ 2.789,00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 278,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Console Microsoft Xbox Series S, 512GB, Branco - RRS-00006</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>R$ 2.815,12</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 331,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Console Playstation 5 Pro Sony, SSD 2TB, Controle Sem Fio Dualsense, Branco</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>R$ 6.590,61</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 732,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Console Portátil Lenovo Legion Go S Ryzen Z2 Go 32gb 1TB SSD WINDOWS 11 Home 8" 83l3000cbr</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>R$ 5.107,54</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 593,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Console Microsoft XBOX Series S 512gb Com Controle Adicional Cor Shock Blue</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>R$ 3.349,00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 334,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Console Atari Flashback 7, Com 101 Jogos Na Memória</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>R$ 359,99</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 35,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Console PlayStation 5 Edição Slim Digital, SSD 1TB, Com Controle Sem Fio, Bundle Edição Limitada Do 30º Aniversário, Cinza e Preto - 1000046555</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>R$ 9.999,99</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 999,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Console Nintendo Switch Lite Hbhsbbza1, 32GB, Azul</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>R$ 1.414,79</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 148,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Console Ps3 500 Gb + 2 Controle + 16 Jogos</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>R$ 1.699,00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 169,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Console Portátil Rog Ally X AMD Z1 Extreme, SSD 1TB, 24GB RAM, Tela 7", WINDOWS 11 Oficial Asus Brasil Black - Nh020w</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>R$ 7.919,12</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 899,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Console XBOX 360 Super Slim 4gb + 2 Controles</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>R$ 1.439,55</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 159,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Console Ps3 Super Slim + Jogos</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>R$ 1.699,00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 169,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Console Playstation 5 Slim Edition Branco + Returnal E Ratchet E Clank + Controle Sem Fio Dualsense Branco</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>R$ 4.340,96</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 493,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Console Nintendo Switch Mario Kart 8, Deluxe - HBDSKABL3</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>R$ 1.970,54</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 201,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Console Portatil Nintendo Switch Lite 32gb, Cinza, Standard, Hdh-s-gazaa.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>R$ 1.649,00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 164,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Console Xbox 360 Slim, 4GB, 2 Controles , Preto + 1 Jogo</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>R$ 1.599,00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 159,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Console Nintendo Switch OLED 64gb Edição Super Mario Bros Wonder</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>R$ 2.499,99</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 249,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Console Nintendo Switch Lite, 32Gb, Azul, Nacional - Hbhsbbza1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>R$ 1.531,11</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 173,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Console Nintendo Switch Oled Com Joy-con, Branco - Hbgskaaa1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>R$ 2.417,07</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 259,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Console Nintendo Switch, 32GB Com Joy-Con 2 Em 1, Cinza - HAC-001</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>R$ 2.417,07</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 259,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Console Master System Evolution Tectoy, 132 Jogos, 2 Controles, Azul</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>R$ 385,09</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 38,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Console Ps3 Slim + 50 Jogos</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>R$ 1.699,00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 169,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Console 360 Slim 3.0 500gb Standard Preto + Jogos + 2 Controles</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>R$ 1.699,00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 169,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Console XBOX 360 Super Slim, 4GB</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>R$ 1.499,00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 149,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Console Playstation 5 Sony, SSD 825GB, Controle Sem Fio Dualsense, Edição Digital, Branco</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>R$ 8.249,99</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 824,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Console Playstation 5 Sony Slim, SSD 1TB, Controle Sem Fio Dualsense, Edição Digital, Branco</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>R$ 3.999,99</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 399,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Console Playstation 5 Slim Sony, 1TB, Call Of Duty Modern Warfare Iii</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>R$ 4.222,08</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 439,80</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Console Nintendo Switch OLED Branco Com Mario Kart 8</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>R$ 2.441,41</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 277,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Console Nintendo Switch Lite, 32GB, Azul, Tela 5.5 - Portatil</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>R$ 1.766,00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 176,60</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Console Nintendo Switch V2 + Mario Kart 8 Deluxe + 3 Meses De Assinatura Nintendo Switch Online</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>R$ 1.999,79</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 222,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Console XBOX 360 Super Slim, 4GB</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>R$ 1.499,00</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 149,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Console Nintendo Switch Lite, 32GB, Turquesa, Tela 5.5 - Portatil</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>R$ 1.533,57</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 164,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Console XBOX 360 Super Slim 4gb + Kinect</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>R$ 1.499,00</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 149,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Console XBOX 360 Super Slim 4GB + Kinect</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>R$ 1.619,00</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 161,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Console Vídeo Game Portátil X16 Plus Tela Gigante De 7,5 " 10 Mil Jogos</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>R$ 359,99</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 35,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Console 360 Super Slim 4gb Standard Cor Preto</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>R$ 1.499,00</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 149,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Console XBOX Series S 512gb 1 Controle Sem Fio HDMI</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>R$ 3.230,91</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 358,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Console Legends Core Plus 100 Jogos - Tectoy Novo Lançamento</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>R$ 303,05</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 31,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Console Nintendo Switch, Azul E Vermelho, Com Mario Kart 8</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>R$ 2.849,99</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 299,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Console 360 Slim 4gb 2 Controles Standard Cor Matte Black</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>R$ 2.300,75</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 230,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Console Zoom Livetrak L12 De Mistura 100v/240v</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>R$ 6.799,00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 679,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Console Sony Playstation 5, 825GB, Controle, Branco, Bivolt.</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>R$ 4.499,10</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 499,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Console De Vídeo Gamer 5,1 " De Mão 8GB Embutido 2000 Jogos Suporte Cartão Tf - ATURN SHOP.</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>R$ 199,90</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+7x de R$ 28,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Console Vídeo Game Portátil X16 Plus + 10.000 Jogos Tela De 7,5 "</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>R$ 399,99</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 39,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Console Retrô Com 20.000 Jogos Clássicos</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>R$ 323,99</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 35,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Console 360 + Kinect E 3 Jogos E 4gb Standard Cor Preto</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>R$ 1.497,00</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 149,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Console XBOX Series S</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>R$ 3.100,00</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 310,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Console Playstation 3 Super Slim</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>R$ 1.599,00</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 159,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Console XBOX 360 Super Slim, 4GB + Kinect + 2 Controles</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>R$ 1.599,00</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 159,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Console XBOX 360 Super Slim 4gb + Kinect + 2 Controles</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>R$ 1.599,00</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 159,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Console Nintendo Switch 32gb Standard Preto, Cinza</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>R$ 1.900,79</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 197,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Console 360 Super Slim 250gb Standard Cor Preto</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>R$ 1.599,00</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 159,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Console Nintendo Switch OLED 64gb + Super Mario Bros Wonder Branco</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>R$ 3.177,67</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 317,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Console Ps3 500 Gb + 2 Controle + Jogos</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>R$ 1.699,00</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 169,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Unidade de disco para consoles PS5 Slim, PS5 Pro Sony, Edição digital, Branco - CFI-2000 - slim</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>R$ 629,10</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 69,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Tampas do console PS5 Slim, Midnight Black - CFI-ZCS2W01Y</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>R$ 314,99</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 34,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Tampas de Console PlayStation 5 Edição Digital, Midnight Black - 1000029752</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>R$ 251,10</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 27,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Cabo Console Db09 X Rj45 De 1,80 Metros</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>R$ 19,90</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+1x de R$ 19,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>PlayStation Portal, Reprodutor Remoto para Console PS5, Branco - 1000041393</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>R$ 1.399,00</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 147,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Tampas do console PS5 Slim, Volcanic Red - CFI-ZCS2W07Y</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>R$ 269,10</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 29,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>PlayStation Portal, Reprodutor Remoto para Console PS5, Midnight Black - 1000044181</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>R$ 1.349,91</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 149,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Cabo Console Usb Para Rj45 Azul 1,80 Metros</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>R$ 51,41</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+2x de R$ 25,70</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Tampas de Console PlayStation 5, Cosmic Red - 1000029750</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>R$ 199,90</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+8x de R$ 27,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Tampas do console PS5 Slim, Chroma Indigo - CFI-ZCS2W11Y</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>R$ 359,99</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 39,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Tampas do console PS5 Sterling Silver - CFI-ZCS2W08Y</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>R$ 299,90</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 33,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Tampas do console PS5 Volcanic Red - CFI-ZCS2W07Y</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>R$ 269,10</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 29,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Tampas de Console PlayStation 5, Galactic Purple - 1000030565</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>R$ 299,90</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 33,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Microfone HyperX QuadCast 2, Compatível com PC, Mac e Consoles, Cardioide, Led Vermelho, Preto - 872V1AA</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>R$ 977,99</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 108,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Game Console Retro Super 3d Games Com 130 Mil Jogos Classicos Com 2 Controles</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>R$ 299,00</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 29,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Tampas do console PS5 Slim, Chroma Pearl - CFI-ZCS2W12Y</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>R$ 314,10</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 34,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Tampas de Console PlayStation 5, Nova Pink - 1000030443</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>R$ 307,70</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 34,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Suporte Console Parede Playstation 5 - Ps5 - Material Acrílico Preto</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>R$ 184,90</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+7x de R$ 26,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Tampa Do Console Playstation 5 Midnight Black</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>R$ 602,10</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 66,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Microfone Gamer HyperX QuadCast Podcast, Antivibração, LED, Preto e Vermelho, Compatível com PC, Mac e Consoles - 4P5P6AA</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>R$ 719,99</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 75,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Tampa Do Console Playstation 5 Galactic Purple</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>R$ 414,90</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 41,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Tampa Do Console Playstation 5 Starlight Blue</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>R$ 341,03</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 34,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Suporte Console Parede Playstation 5 - Ps5 - Material Acrílico Cristal (transparente)</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>R$ 185,90</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+7x de R$ 26,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Tampa Do Console Playstation 5 Nova Pink</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>R$ 342,02</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 34,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Jogo Rust Console Edition Xbox One Midia Fisica</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>R$ 77,90</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+3x de R$ 25,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Tampas de Console PlayStation 5, Starlight Blue - 1000030567</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>R$ 307,70</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 34,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Tampas Do Console Ps5 Slim, Midnight Black - Cfi-zcs2w01y</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>R$ 679,00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 67,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Adaptador P2 X P3 Headset Fone Microfone E Console Xc-adp-14.</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>R$ 4,99</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+1x de R$ 4,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Tampas Capa Do Console Ps5 Midnight Black Preta Sony Playstation 5</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>R$ 593,10</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 65,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Mini Vídeo Game Console Portátil Retrô 9000 Jogos Arcade Cor Preto</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>R$ 522,49</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 54,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Reprodutor Remoto Playstation Portal Para Console Ps5 Sony</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>R$ 1.450,00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 145,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Mini Video Game, Console 620 Jogos, Retro</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>R$ 228,79</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 25,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Tampa Skin Para Console Playstation 5 Cobalt Blue Sony</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>R$ 302,39</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 31,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Headset Gamer Razer Kaira X, Console e PC, Drivers 50mm, P2, Preto e Verde - RZ04-03970100-R3U1</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>R$ 558,99</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 65,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Adaptador P2 X P3 Lelong, Headset, Fone, Microfone E Console</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>R$ 9,11</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+1x de R$ 9,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Headset Gamer Sem Fio Razer BlackShark V2 Pro Xbox Licensed, Console Esports, NASA Packaging, Preto - RZ0404530300R3</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>R$ 2.099,99</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 233,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Controle Thrustmaster Eswap S Pro, Console XBOX - 4460225</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>R$ 599,00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 66,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Suporte Vertical Para Consoles Stand Playstation 5</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>R$ 184,50</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+8x de R$ 25,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Mouse Pad Fábrica Geek Console Atari</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>R$ 17,71</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+1x de R$ 17,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Placa De Captura Externa Para Streaming AverMedia Mini, 1080p60, Para GPU E Consoles, USB e HDMI - GC311</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>R$ 609,72</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 71,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Headset Gamer Trust GXT 489 Fayzo, Drivers 50mm, P2, pc, laptop, console de jogos, smartphone, Preto - 24898</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>R$ 189,99</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+8x de R$ 25,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Headset Gamer Havit H2002D, Driver 53Mm, Com Cabo P3 3.5mm, Para PC E Consoles Ps4/Ps3 Xbox, Preto</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>R$ 329,27</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 33,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Mini Vídeo Game Mp5 X7 Console Portátil Retrô 1000 Jogos</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>R$ 541,49</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 56,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Game Console Retro Super 3d Games Com 130 Mil Jogos Classicos Com 2 Controles</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>R$ 279,00</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 27,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Mini Console 620 Jogos Clássicos 8 Bits 2 Controles Bivolt Super Mini Sfc</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>R$ 129,99</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 25,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Cabo Console Tipo C Para Rj45 Azul 1,80 Metros</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>R$ 35,58</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+1x de R$ 35,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Game Console Retro Super 3d Games Com 130 Mil Jogos Classicos Com 2 Controles</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>R$ 289,00</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 28,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Cabo Console Type C -tipo C X Rj45 1,8 Metros</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>R$ 29,00</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+1x de R$ 29,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Cooler Fan Ventilador Resfriador P/console De Jogos Ps5 Cor:branco</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>R$ 97,89</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+3x de R$ 32,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Fone Headset Gamer Razer Kraken X Para Console Branco</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>R$ 328,83</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 33,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Video Game Portátil X6 Handheld Game Console Portátil, 8g, 32g, Pré-instalação, 1500 + Jogos Grátis, Suporte Tv Out, Máquina De Videogame, Boy Player, 4.0 - ATURN SHOP.</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>R$ 199,90</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+7x de R$ 28,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Kit 2 Baterias Recarregáveis Para Console Psp Slim Série Modelo 2000 3000 3001 3010 Sony Battery Pack</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>R$ 65,49</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+2x de R$ 32,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Super Console 500g Gaming Hdd 100000 500g</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>R$ 441,10</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 44,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>SSD WD Black SN850P NVMe, 1TB, Leitura: 7300MB/s e Gravação: 6300MB/s, para consoles PS5, Preto - WDBBYV0010BNC-WRSN</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>R$ 1.044,99</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 122,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Headset Gamer Evolut Rival, RGB, LED, Para PC, Notebook, Smartphone e Consoles</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>R$ 69,90</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+3x de R$ 27,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Headset Gamer Trust GXT 489W Fayzo, Drive 50mm, P3, PC e Console, Branco - 25210</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>R$ 209,99</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+9x de R$ 27,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Headset Gamer Razer Kraken X For Console P2 / P3 - Green</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>R$ 367,63</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 37,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Fonte De Alimentação Ac Energia Bivolt Carregador Compativel Com Console Nintendo Switch E Controle</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>R$ 57,89</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+2x de R$ 28,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Fonte De Alimentação Ac Energia Bivolt Compativel Com Console XBOX 360 Slim 2 Pinos + Cabo De Força</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>R$ 74,89</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+2x de R$ 37,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Capa Case Bag Rígida Estojo Compatível Nintendo Switch Console + Película Switch Vidro</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>R$ 74,49</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+2x de R$ 37,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Suporte Vertical Fy TP4-19076 Para Console Ps4</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>R$ 174,71</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+7x de R$ 27,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Suporte Console Parede Playstation 5 - Ps5 - Material Acrílico Vidro (acrílico Imita Vidro)</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>R$ 184,00</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+7x de R$ 26,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Suporte Console Vertical Para XBOX One Preto Power A</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>R$ 46,08</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+1x de R$ 46,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Headset Gamer Pro X36, Preto Para Pc, Mobile, Ou Console, Driver 40mm</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>R$ 158,41</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+6x de R$ 26,40</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Playseat Evolution Sim Racing Cockpit Para Pc E Console</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>R$ 3.349,00</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 334,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Adaptador de Teclado e Mouse Redragon Vulcan, Para Console Xbox One, PS4, Nintendo Switch, PS3 - GA-250</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>R$ 136,80</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+6x de R$ 25,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Headset Gamer Razer Kraken X Mercury - Para Console E Pc - Conector 3.5mm - Rz04-02890300-r3u1</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>R$ 934,15</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 109,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Fone Headset Estéreo Controle Volume Microfone Games Console Pc Notebook Usb Feir Fr-215</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>R$ 186,55</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+8x de R$ 27,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Capa Case Estojo Compatível Nintendo Switch Console + Pelicula Vidro</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>R$ 74,49</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+2x de R$ 37,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Controle Console Gamer Celular Bluetooth Wireless Android Ios</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>R$ 149,90</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 29,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Headset Gamer A+ Plus Tech Tech Ignite, 40mm, P3, Console, PC, Smartphone, e Notebook, Preto - Ap-hs-1995</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>R$ 199,00</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+7x de R$ 28,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Video Game Stick 4k, 10 mil jogos retro, 2 controles sem fio, Console Portátil</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>R$ 231,20</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 28,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Headset Gamer Redragon Zeus 2 Sakura Edition 7.1, P2, Com Microfone PC e Consoles PS4/Xbox - H510W</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>R$ 621,70</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 65,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Base Para Console Ps4 Com Carregador Controle Bc-ps4 C3tech</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Adaptador Lelong P3 P2, Combo Fone Microfone Headset Console Celular Notebook Computador Xbox One Play 4</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>R$ 9,11</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+1x de R$ 9,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Gamebit 3.8mm 4.5mm Chave para Abrir Cartuchos e Consoles Nes Snes Nintendo 64 Game Boy</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>R$ 21,90</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+1x de R$ 21,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Base De Resfriamento De Ventilador Multifuncional Compative Console De Jogos Ps5</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>R$ 248,31</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 26,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Suporte Para Tela SXT V2 De 24 Até 43 Polegadas Com Porta PC/Console, Extreme Simracing</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>R$ 809,00</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 80,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Headset Gamer Trust GXT 490W Fayzo, RGB, 7.1, Drive 50mm, USB, PC e Console, Branco - 25302</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>R$ 229,99</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 27,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Mini Teclado Wireless Keyboard Com Touchpad Com Led Usb Android Console E Tv</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>R$ 36,71</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+1x de R$ 36,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Video Game X6 Console De Jogo De Mão 10000 Jogos 8GB Memória De Filme Descarregável Mp3 Player/12 Grande Simulador - ATURN SHOP.</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>R$ 199,90</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+7x de R$ 28,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Suporte para Nintendo Switch Dock Carregador, Dobe Stand Multifuncional para Console e Joystick, 6 slots de armazenamento, Preto - TNS-895</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>R$ 57,89</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+2x de R$ 28,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 4 Pro - Ps4 Pro - Material Acrílico Vidro (acrílico Que Imita Vidro)</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 4 Slim - Ps4 Slim - Material Acrílico Cristal (transparente)</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 3 Slim - Ps3 Slim - Material Acrílico Cristal</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 4 Slim - Ps4 Slim - Material Acrílico Azul</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 4 Slim - Ps4 Slim - Material Acrílico Preto</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 4 Fat - Ps4 Fat - Material Acrílico Cristal (transparente)</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 4 Pro - Ps4 Pro - Material Acrílico Cristal (transparente)</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 4 Fat - Ps4 Fat - Material Acrílico Azul</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 3 Super Slim - Ps3 Super Slim - Material Acrílico Preto</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 3 Super Slim - Ps3 Super Slim - Material Acrílico Azul</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 3 Fat - Ps3 Fat - Material Acrílico Cristal</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 3 Fat - Ps3 Fat - Material Acrílico Preto</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 4 Fat - Ps4 Fat - Material Acrílico Vidro (acrílico Imita Vidro)</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 4 Fat - Ps4 Fat - Material Acrílico Preto</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 4 Slim - Ps4 Slim - Material Acrílico Vermelho</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 3 Super Slim - Ps3 Super Slim - Material Acrílico Vermelho</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 3 Slim - Ps3 Slim - Material Acrílico Vermelho</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 3 Fat - Ps3 Fat - Material Acrílico Vidro (acrílico Que Imita Vidro)</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 4 Pro - Ps4 Pro - Material Acrílico Preto</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 3 Slim - Ps3 Slim - Material Acrílico Vidro (acrílico Que Imita Vidro)</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 3 Fat - Ps3 Fat - Material Acrílico Vermelho</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 4 Fat - Ps4 Fat - Material Acrílico Vidro (acrílico Imita Vidro)</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 4 Fat - Ps4 Fat - Material Acrílico Preto</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 4 Fat - Ps4 Fat - Material Acrílico Vermelho</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 4 Pro - Ps4 Pro - Material Acrílico Preto</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 3 Slim - Ps3 Slim - Material Acrílico Azul</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 4 Slim - Ps4 Slim - Material Acrílico Vidro (acrílico Imitando Vidro)</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 3 Super Slim - Ps3 Super Slim - Material Acrílico Vidro (acrílico Que Imita Vidro)</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 3 Slim - Ps3 Slim - Material Acrílico Preto</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 3 Fat - Ps3 Fat - Material Acrílico Azul</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Suporte Parede Console Playstation 3 Super Slim - Ps3 Super Slim - Material Acrílico Cristal</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>R$ 139,90</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 27,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Headset Gamer Corsair HS35 V2, Neodímio de 50mm, Com Microfone, Para PC, Mac, Consoles e Celulares, Preto - CA-9011377-NA</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>R$ 399,99</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 44,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Cartão De Memória Sandisk Nintendo Switch Microsd 128GB, Licenciado Oficialmente Para O Console Nintendo Switch, Sdsqxao-128g-gnczn Sandisk</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>R$ 165,00</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+6x de R$ 27,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Fonte Power Para Console Wii, Bivolt 110-240v + Cabo Força</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>R$ 63,93</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+2x de R$ 31,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Usb Cabo Rs232 Ugreen Console Do Cabo Rj45 Para O Roteador Cabo Do Console 1.5m</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>R$ 313,63</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 33,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>HD Externo Portátil WD Consoles Pc Notebooks 1 terabyte</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>R$ 543,10</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 55,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Vídeo Game Portátil Mini Console Jogos Retrô Clássico Pvp Station Light 3000</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>R$ 190,08</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+7x de R$ 28,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Mesa De Som Temtec Mixer Console, 7 Canais, Retorno Profissional</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>R$ 1.053,32</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 105,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Vídeo Game Portátil Mini Console Jogos Retrô Clássico Wanle Sup 500 Em 1</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>R$ 61,44</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+2x de R$ 32,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Mini Game Brick 9999 Em 1 Console Portátil Retro Tetris Cor:laranja</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>R$ 19,13</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+1x de R$ 20,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Compatível Console Nintendo Nes Nintendinho Playtronic</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>R$ 180,49</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+7x de R$ 27,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Compatível Console Mega Drive E Phantom System</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>R$ 189,99</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+7x de R$ 28,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Compativel Console Nintendo Dsi, 2ds, 3ds, New 2ds 3ds, Xl</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>R$ 189,99</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+7x de R$ 28,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Compativel Console Nintendo Ds Lite Ndsl</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>R$ 189,99</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+7x de R$ 28,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Compatível Console Nintendo Gamecube</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>R$ 284,99</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 29,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Cabo Av Áudio E Vídeo Rca, Para Console Nintendo Wii</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>R$ 96,79</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+4x de R$ 27,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Case Externo Gamer De Hd 3,5 P/ Console Pro-z Hddgu3-pro-z Avolusion</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>R$ 311,38</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 33,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Retro Estação Pvp Pxp Sup Jogos Console De Vídeo Game Portátil X6 - ATURN SHOP.</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>R$ 199,90</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+7x de R$ 28,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Cooler Fan Ventilador Resfriador P/console De Jogos Ps5 Cor:preto</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>R$ 97,89</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+3x de R$ 32,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Fonte Carregador 2 Pinos Compatível Console XBOX 360 Slim</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>R$ 227,99</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+9x de R$ 26,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Fonte Carregador 2 Pinos Compatível Console XBOX One</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>R$ 265,99</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 27,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Capa Case Estojo Para Nintendo Switch Console + Pelicula Vdr</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>R$ 74,49</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+2x de R$ 37,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Fonte Alimentação Carregador Compatível Console Nintendo Wii U</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>R$ 208,99</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+8x de R$ 27,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Fonte Alimentação Carregador Compatível Console Nintendo Wii</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>R$ 189,99</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+7x de R$ 28,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Kit 2 Peliculas De Vidro Protetora 9h Para Console Nintendo New 2ds Xl E Ll Para Tela Superior Inferior</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>R$ 46,49</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+1x de R$ 46,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>SSD WD Black Sn580p 1TB Nvme M.2, 2280 Para Consoles PS5 - Wdbbyv0010bnc-wrsn</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>R$ 1.159,00</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 115,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Controle Sem Fio 3 Em 1 Bluetooth Para Jogos E Consoles</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>R$ 190,93</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+7x de R$ 27,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Headset Gamer G311 Ear Surround Sound Noise LED PC Console</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>R$ 126,00</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 25,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Placa De Captura Live Gamer Mini - Gc311 - Indicada Para Gpu E Consoles</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>R$ 776,03</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 81,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Suporte Dock De Carregamento Base Carregador Compativel Com Console Steam Deck 3 Entradas Usb</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>R$ 97,89</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+3x de R$ 32,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Case Para Hd Externo Slim 2.5" Transparente Usb 3.0 Sata Para PC Notebook E Consoles</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>R$ 29,90</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+1x de R$ 29,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Controle Com Fio Para Jogos De Luta Hori Alpha Para Ps4, Ps5 E PC Licenciado Para Consoles Sony</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>R$ 2.199,00</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 219,90</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Kit Gamer Teclado Semi-mecânico + Mouse RGB 3200 Dpi + Mouse Pad + Headset - Compatível Com Computador Notebook E Vídeogame</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>R$ 161,42</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+7x de R$ 27,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Teclado Semi-Mecânico Gamer ARGB + Mouse Gamer ARGB DPi -Computador Notebook E Vídeogame</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>R$ 74,38</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+3x de R$ 25,30</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Mouse Gamer Knup, Óptico, LED, USB, PC, Computador, Videogame</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>R$ 42,42</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+1x de R$ 44,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Controlador De Videogame Lite Retrô Clássico, Sem Fio, Gamepad 4k</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>R$ 347,99</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 39,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Mini Videogame Portátil Com Teclado 400 Jogos Integrados</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>R$ 59,00</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+2x de R$ 29,50</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Jogo Monster Energy Supercross, The Official Videogame 5 - PS4</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>R$ 167,00</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+6x de R$ 27,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Teclado Gamer Semi Mecânico LED RGB Abnt2 Usb PC Videogame</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>R$ 99,90</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+4x de R$ 29,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>LEGO NINJAGO O Filme Videogame para Xbox One</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>R$ 113,99</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+4x de R$ 29,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Videogame Portatil Sup Game Box Power M3, Preto</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>R$ 633,59</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 65,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Jogo Uma Aventura Lego 2 Videogame - Xbox One</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>R$ 66,49</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+2x de R$ 34,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Mini Teclado Touch H'maston, Luz Colorida, Sem Fio, Para Tv, Videogame, Notebook - Jp-25</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>R$ 39,99</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+1x de R$ 39,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Headset Gamer RGB LED PC Computador Vídeogame</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>R$ 78,90</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+3x de R$ 26,30</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Carregador Ps5 Para 2 Controles Videogame Base Carregamento</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>R$ 169,90</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+6x de R$ 28,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>The Lego Movie Videogame para Xbox One</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>R$ 94,99</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+3x de R$ 33,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Jogo The Lego Movie Videogame 2 - Xbox One Mídia Física</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>R$ 59,90</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+2x de R$ 29,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Videogame Portatil Altomex At-582</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>R$ 246,90</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 25,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Videogame Portátil Game Box Power M3.</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>R$ 329,90</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+10x de R$ 32,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>The Lego Movie Videogame para Xbox One - Warner</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>R$ 55,94</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+2x de R$ 27,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Jogo Mxgp The Official Motocross Videogame Ps3 Novo</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>R$ 199,00</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+7x de R$ 28,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Jogo LEGO Ninjago: O Filme - Videogame - PS4</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>R$ 116,10</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+5x de R$ 25,80</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Jogo LEGO, Ninjago: O Filme - Videogame, Xbox One</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>R$ 62,17</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+2x de R$ 32,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Jogo The Lego Movie Videogame - Ps4</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>R$ 69,00</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>À vista no PIX
+ou até
+2x de R$ 34,50</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/consoles.xlsx
+++ b/consoles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C230"/>
+  <dimension ref="A1:C225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,38 +548,38 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Console Nintendo Switch OLED, Branco + Mario Kart 8 Deluxe + 3 meses do Nintendo Switch Online</t>
+          <t>Console PlayStation 5 Slim Sony, SSD 1TB, Controle Sem Fio DualSense, Branco + 2 Jogos- 1000038899</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R$ 2.510,07</t>
+          <t>R$ 3.869,10</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 269,89</t>
+10x de R$ 429,90</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Console PlayStation 5 Slim Sony, SSD 1TB, Controle Sem Fio DualSense, Branco + 2 Jogos- 1000038899</t>
+          <t>Console Nintendo Switch OLED, Branco + Mario Kart 8 Deluxe + 3 meses do Nintendo Switch Online</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R$ 3.609,05</t>
+          <t>R$ 2.510,07</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 379,90</t>
+10x de R$ 269,89</t>
         </is>
       </c>
     </row>
@@ -681,38 +681,38 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Console Portátil Lenovo Legion Go S Ryzen Z2 Go 32gb 1TB SSD WINDOWS 11 Home 8" 83l3000cbr</t>
+          <t>Console PlayStation 5 Edição Slim Digital, SSD 1TB, Com Controle Sem Fio, Bundle Edição Limitada Do 30º Aniversário, Cinza e Preto - 1000046555</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R$ 5.107,54</t>
+          <t>R$ 9.999,99</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 593,90</t>
+10x de R$ 999,99</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Console Microsoft XBOX Series S 512gb Com Controle Adicional Cor Shock Blue</t>
+          <t>Console Portátil Lenovo Legion Go S Ryzen Z2 Go 32gb 1TB SSD WINDOWS 11 Home 8" 83l3000cbr</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R$ 3.349,00</t>
+          <t>R$ 5.107,54</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 334,90</t>
+10x de R$ 593,90</t>
         </is>
       </c>
     </row>
@@ -738,463 +738,463 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Console PlayStation 5 Edição Slim Digital, SSD 1TB, Com Controle Sem Fio, Bundle Edição Limitada Do 30º Aniversário, Cinza e Preto - 1000046555</t>
+          <t>Console Nintendo Switch Lite Hbhsbbza1, 32GB, Azul</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R$ 9.999,99</t>
+          <t>R$ 1.414,79</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 999,99</t>
+10x de R$ 148,92</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Console Nintendo Switch Lite Hbhsbbza1, 32GB, Azul</t>
+          <t>Console Ps3 500 Gb + 2 Controle + 16 Jogos</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R$ 1.414,79</t>
+          <t>R$ 1.699,00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 148,92</t>
+10x de R$ 169,90</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Console Ps3 500 Gb + 2 Controle + 16 Jogos</t>
+          <t>Console Portátil Rog Ally X AMD Z1 Extreme, SSD 1TB, 24GB RAM, Tela 7", WINDOWS 11 Oficial Asus Brasil Black - Nh020w</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R$ 1.699,00</t>
+          <t>R$ 7.919,12</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 169,90</t>
+10x de R$ 899,90</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Console Portátil Rog Ally X AMD Z1 Extreme, SSD 1TB, 24GB RAM, Tela 7", WINDOWS 11 Oficial Asus Brasil Black - Nh020w</t>
+          <t>Console XBOX 360 Super Slim 4gb + 2 Controles</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R$ 7.919,12</t>
+          <t>R$ 1.439,55</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 899,90</t>
+10x de R$ 159,94</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Console XBOX 360 Super Slim 4gb + 2 Controles</t>
+          <t>Console Playstation 5 Slim Edition Branco + Returnal E Ratchet E Clank + Controle Sem Fio Dualsense Branco</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R$ 1.439,55</t>
+          <t>R$ 4.340,96</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 159,94</t>
+10x de R$ 493,29</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Console Ps3 Super Slim + Jogos</t>
+          <t>Console Nintendo Switch Mario Kart 8, Deluxe - HBDSKABL3</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R$ 1.699,00</t>
+          <t>R$ 1.970,54</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 169,90</t>
+10x de R$ 201,07</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Console Playstation 5 Slim Edition Branco + Returnal E Ratchet E Clank + Controle Sem Fio Dualsense Branco</t>
+          <t>Console Portatil Nintendo Switch Lite 32gb, Cinza, Standard, Hdh-s-gazaa.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R$ 4.340,96</t>
+          <t>R$ 1.649,00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 493,29</t>
+10x de R$ 164,90</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Console Nintendo Switch Mario Kart 8, Deluxe - HBDSKABL3</t>
+          <t>Console Xbox 360 Slim, 4GB, 2 Controles , Preto + 1 Jogo</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R$ 1.970,54</t>
+          <t>R$ 1.599,00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 201,07</t>
+10x de R$ 159,90</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Console Portatil Nintendo Switch Lite 32gb, Cinza, Standard, Hdh-s-gazaa.</t>
+          <t>Console Nintendo Switch OLED 64gb Edição Super Mario Bros Wonder</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R$ 1.649,00</t>
+          <t>R$ 2.499,99</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 164,90</t>
+10x de R$ 249,99</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Console Xbox 360 Slim, 4GB, 2 Controles , Preto + 1 Jogo</t>
+          <t>Console Nintendo Switch Lite, 32Gb, Azul, Nacional - Hbhsbbza1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R$ 1.599,00</t>
+          <t>R$ 1.531,11</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 159,90</t>
+10x de R$ 173,99</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Console Nintendo Switch OLED 64gb Edição Super Mario Bros Wonder</t>
+          <t>Console Nintendo Switch, 32GB Com Joy-Con 2 Em 1, Cinza - HAC-001</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R$ 2.499,99</t>
+          <t>R$ 2.417,07</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 249,99</t>
+10x de R$ 259,89</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Console Nintendo Switch Lite, 32Gb, Azul, Nacional - Hbhsbbza1</t>
+          <t>Console Ps3 Slim + 50 Jogos</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R$ 1.531,11</t>
+          <t>R$ 1.699,00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 173,99</t>
+10x de R$ 169,90</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Console Nintendo Switch Oled Com Joy-con, Branco - Hbgskaaa1</t>
+          <t>Console Master System Evolution Tectoy, 132 Jogos, 2 Controles, Azul</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R$ 2.417,07</t>
+          <t>R$ 385,09</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 259,89</t>
+10x de R$ 38,50</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Console Nintendo Switch, 32GB Com Joy-Con 2 Em 1, Cinza - HAC-001</t>
+          <t>Console 360 Slim 3.0 500gb Standard Preto + Jogos + 2 Controles</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R$ 2.417,07</t>
+          <t>R$ 1.699,00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 259,89</t>
+10x de R$ 169,90</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Console Master System Evolution Tectoy, 132 Jogos, 2 Controles, Azul</t>
+          <t>Console XBOX 360 Super Slim, 4GB</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R$ 385,09</t>
+          <t>R$ 1.499,00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 38,50</t>
+10x de R$ 149,90</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Console Ps3 Slim + 50 Jogos</t>
+          <t>Console Playstation 5 Sony, SSD 825GB, Controle Sem Fio Dualsense, Edição Digital, Branco</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R$ 1.699,00</t>
+          <t>R$ 8.249,99</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 169,90</t>
+10x de R$ 824,99</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Console 360 Slim 3.0 500gb Standard Preto + Jogos + 2 Controles</t>
+          <t>Console Playstation 5 Sony Slim, SSD 1TB, Controle Sem Fio Dualsense, Edição Digital, Branco</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R$ 1.699,00</t>
+          <t>R$ 3.999,99</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 169,90</t>
+10x de R$ 399,99</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Console XBOX 360 Super Slim, 4GB</t>
+          <t>Console Nintendo Switch OLED Branco Com Mario Kart 8</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R$ 1.499,00</t>
+          <t>R$ 2.441,41</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 149,90</t>
+10x de R$ 277,43</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Console Playstation 5 Sony, SSD 825GB, Controle Sem Fio Dualsense, Edição Digital, Branco</t>
+          <t>Console Nintendo Switch Lite, 32GB, Azul, Tela 5.5 - Portatil</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R$ 8.249,99</t>
+          <t>R$ 1.766,00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 824,99</t>
+10x de R$ 176,60</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Console Playstation 5 Sony Slim, SSD 1TB, Controle Sem Fio Dualsense, Edição Digital, Branco</t>
+          <t>Console XBOX Series S 512gb 1 Controle Sem Fio HDMI</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R$ 3.999,99</t>
+          <t>R$ 3.230,91</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 399,99</t>
+10x de R$ 358,99</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Console Playstation 5 Slim Sony, 1TB, Call Of Duty Modern Warfare Iii</t>
+          <t>Console Ps4 Fat 500 Gb 2 Controles Preto</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R$ 4.222,08</t>
+          <t>R$ 2.899,00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 439,80</t>
+10x de R$ 289,89</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Console Nintendo Switch OLED Branco Com Mario Kart 8</t>
+          <t>Console Nintendo Switch V2 + Mario Kart 8 Deluxe + 3 Meses De Assinatura Nintendo Switch Online</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R$ 2.441,41</t>
+          <t>R$ 1.999,79</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 277,43</t>
+10x de R$ 222,19</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Console Nintendo Switch Lite, 32GB, Azul, Tela 5.5 - Portatil</t>
+          <t>Console XBOX 360 Super Slim, 4GB</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R$ 1.766,00</t>
+          <t>R$ 1.499,00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 176,60</t>
+10x de R$ 149,90</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Console Nintendo Switch V2 + Mario Kart 8 Deluxe + 3 Meses De Assinatura Nintendo Switch Online</t>
+          <t>Console Nintendo Switch Lite, 32GB, Turquesa, Tela 5.5 - Portatil</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R$ 1.999,79</t>
+          <t>R$ 1.533,57</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 222,19</t>
+10x de R$ 164,90</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Console XBOX 360 Super Slim, 4GB</t>
+          <t>Console XBOX 360 Super Slim 4gb + Kinect</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1213,2002 +1213,2002 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Console Nintendo Switch Lite, 32GB, Turquesa, Tela 5.5 - Portatil</t>
+          <t>Console XBOX 360 Super Slim 4GB + Kinect</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R$ 1.533,57</t>
+          <t>R$ 1.619,00</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 164,90</t>
+10x de R$ 161,90</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Console XBOX 360 Super Slim 4gb + Kinect</t>
+          <t>Console Vídeo Game Portátil X16 Plus Tela Gigante De 7,5 " 10 Mil Jogos</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R$ 1.499,00</t>
+          <t>R$ 359,99</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 149,90</t>
+10x de R$ 35,99</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Console XBOX 360 Super Slim 4GB + Kinect</t>
+          <t>Console Legends Core Plus 100 Jogos - Tectoy Novo Lançamento</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R$ 1.619,00</t>
+          <t>R$ 303,05</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 161,90</t>
+10x de R$ 31,90</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Console Vídeo Game Portátil X16 Plus Tela Gigante De 7,5 " 10 Mil Jogos</t>
+          <t>Console Nintendo Switch, Azul E Vermelho, Com Mario Kart 8</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R$ 359,99</t>
+          <t>R$ 2.849,99</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 35,99</t>
+10x de R$ 299,99</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Console 360 Super Slim 4gb Standard Cor Preto</t>
+          <t>Console 360 Slim 4gb 2 Controles Standard Cor Matte Black</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R$ 1.499,00</t>
+          <t>R$ 2.300,75</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 149,90</t>
+10x de R$ 230,07</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Console XBOX Series S 512gb 1 Controle Sem Fio HDMI</t>
+          <t>Console 360 Super Slim 4gb Standard Cor Preto</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R$ 3.230,91</t>
+          <t>R$ 1.499,00</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 358,99</t>
+10x de R$ 149,90</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Console Legends Core Plus 100 Jogos - Tectoy Novo Lançamento</t>
+          <t>Console 360 + Kinect E 3 Jogos E 4gb Standard Cor Preto</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R$ 303,05</t>
+          <t>R$ 1.497,00</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 31,90</t>
+10x de R$ 149,69</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Console Nintendo Switch, Azul E Vermelho, Com Mario Kart 8</t>
+          <t>Console Zoom Livetrak L12 De Mistura 100v/240v</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R$ 2.849,99</t>
+          <t>R$ 6.799,00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 299,99</t>
+10x de R$ 679,90</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Console 360 Slim 4gb 2 Controles Standard Cor Matte Black</t>
+          <t>Console Sony Playstation 5, 825GB, Controle, Branco, Bivolt.</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R$ 2.300,75</t>
+          <t>R$ 4.499,10</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 230,07</t>
+10x de R$ 499,90</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Console Zoom Livetrak L12 De Mistura 100v/240v</t>
+          <t>Console De Vídeo Gamer 5,1 " De Mão 8GB Embutido 2000 Jogos Suporte Cartão Tf - ATURN SHOP.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>R$ 6.799,00</t>
+          <t>R$ 199,90</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 679,90</t>
+7x de R$ 28,55</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Console Sony Playstation 5, 825GB, Controle, Branco, Bivolt.</t>
+          <t>Console Vídeo Game Portátil X16 Plus + 10.000 Jogos Tela De 7,5 "</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>R$ 4.499,10</t>
+          <t>R$ 399,99</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 499,90</t>
+10x de R$ 39,99</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Console De Vídeo Gamer 5,1 " De Mão 8GB Embutido 2000 Jogos Suporte Cartão Tf - ATURN SHOP.</t>
+          <t>Console Retrô Com 20.000 Jogos Clássicos</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R$ 199,90</t>
+          <t>R$ 323,99</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-7x de R$ 28,55</t>
+10x de R$ 35,99</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Console Vídeo Game Portátil X16 Plus + 10.000 Jogos Tela De 7,5 "</t>
+          <t>Console XBOX Series S</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>R$ 399,99</t>
+          <t>R$ 3.100,00</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 39,99</t>
+10x de R$ 310,00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Console Retrô Com 20.000 Jogos Clássicos</t>
+          <t>Console Playstation 3 Super Slim</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>R$ 323,99</t>
+          <t>R$ 1.599,00</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 35,99</t>
+10x de R$ 159,90</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Console 360 + Kinect E 3 Jogos E 4gb Standard Cor Preto</t>
+          <t>Console XBOX 360 Super Slim, 4GB + Kinect + 2 Controles</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>R$ 1.497,00</t>
+          <t>R$ 1.599,00</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 149,69</t>
+10x de R$ 159,90</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Console XBOX Series S</t>
+          <t>Console XBOX 360 Super Slim 4gb + Kinect + 2 Controles</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>R$ 3.100,00</t>
+          <t>R$ 1.599,00</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 310,00</t>
+10x de R$ 159,90</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Console Playstation 3 Super Slim</t>
+          <t>Console Nintendo Switch 32gb Standard Preto, Cinza</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>R$ 1.599,00</t>
+          <t>R$ 1.900,79</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 159,90</t>
+10x de R$ 197,99</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Console XBOX 360 Super Slim, 4GB + Kinect + 2 Controles</t>
+          <t>Console Ps3 500 Gb + 2 Controle + Jogos</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>R$ 1.599,00</t>
+          <t>R$ 1.699,00</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 159,90</t>
+10x de R$ 169,90</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Console XBOX 360 Super Slim 4gb + Kinect + 2 Controles</t>
+          <t>Console Nintendo Switch OLED 64gb + Super Mario Bros Wonder Branco</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R$ 1.599,00</t>
+          <t>R$ 3.177,67</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 159,90</t>
+10x de R$ 317,76</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Console Nintendo Switch 32gb Standard Preto, Cinza</t>
+          <t>Unidade de disco para consoles PS5 Slim, PS5 Pro Sony, Edição digital, Branco - CFI-2000 - slim</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>R$ 1.900,79</t>
+          <t>R$ 629,10</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 197,99</t>
+10x de R$ 69,90</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Console 360 Super Slim 250gb Standard Cor Preto</t>
+          <t>Tampas do console PS5 Slim, Midnight Black - CFI-ZCS2W01Y</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>R$ 1.599,00</t>
+          <t>R$ 314,99</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 159,90</t>
+10x de R$ 34,99</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Console Nintendo Switch OLED 64gb + Super Mario Bros Wonder Branco</t>
+          <t>Tampas de Console PlayStation 5 Edição Digital, Midnight Black - 1000029752</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>R$ 3.177,67</t>
+          <t>R$ 251,10</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 317,76</t>
+10x de R$ 27,90</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Console Ps3 500 Gb + 2 Controle + Jogos</t>
+          <t>Cabo Console Db09 X Rj45 De 1,80 Metros</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>R$ 1.699,00</t>
+          <t>R$ 19,90</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 169,90</t>
+1x de R$ 19,89</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Unidade de disco para consoles PS5 Slim, PS5 Pro Sony, Edição digital, Branco - CFI-2000 - slim</t>
+          <t>PlayStation Portal, Reprodutor Remoto para Console PS5, Midnight Black - 1000044181</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>R$ 629,10</t>
+          <t>R$ 1.349,91</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 69,90</t>
+10x de R$ 149,99</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Tampas do console PS5 Slim, Midnight Black - CFI-ZCS2W01Y</t>
+          <t>Tampas do console PS5 Slim, Volcanic Red - CFI-ZCS2W07Y</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>R$ 314,99</t>
+          <t>R$ 269,10</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 34,99</t>
+10x de R$ 29,90</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Tampas de Console PlayStation 5 Edição Digital, Midnight Black - 1000029752</t>
+          <t>PlayStation Portal, Reprodutor Remoto para Console PS5, Branco - 1000041393</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>R$ 251,10</t>
+          <t>R$ 1.399,00</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 27,90</t>
+10x de R$ 147,26</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Cabo Console Db09 X Rj45 De 1,80 Metros</t>
+          <t>Cabo Console Usb Para Rj45 Azul 1,80 Metros</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>R$ 19,90</t>
+          <t>R$ 51,41</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-1x de R$ 19,89</t>
+2x de R$ 25,70</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PlayStation Portal, Reprodutor Remoto para Console PS5, Branco - 1000041393</t>
+          <t>Tampas de Console PlayStation 5, Cosmic Red - 1000029750</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R$ 1.399,00</t>
+          <t>R$ 199,90</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 147,26</t>
+8x de R$ 27,76</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Tampas do console PS5 Slim, Volcanic Red - CFI-ZCS2W07Y</t>
+          <t>Tampas de Console PlayStation 5, Galactic Purple - 1000030565</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R$ 269,10</t>
+          <t>R$ 299,90</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 29,90</t>
+10x de R$ 33,32</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PlayStation Portal, Reprodutor Remoto para Console PS5, Midnight Black - 1000044181</t>
+          <t>Tampas do console PS5 Sterling Silver - CFI-ZCS2W08Y</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>R$ 1.349,91</t>
+          <t>R$ 299,90</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 149,99</t>
+10x de R$ 33,32</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Cabo Console Usb Para Rj45 Azul 1,80 Metros</t>
+          <t>Tampas do console PS5 Volcanic Red - CFI-ZCS2W07Y</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>R$ 51,41</t>
+          <t>R$ 269,10</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-2x de R$ 25,70</t>
+10x de R$ 29,90</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Tampas de Console PlayStation 5, Cosmic Red - 1000029750</t>
+          <t>Tampas do console PS5 Slim, Chroma Indigo - CFI-ZCS2W11Y</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>R$ 199,90</t>
+          <t>R$ 359,99</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-8x de R$ 27,76</t>
+10x de R$ 39,99</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Tampas do console PS5 Slim, Chroma Indigo - CFI-ZCS2W11Y</t>
+          <t>Microfone HyperX QuadCast 2, Compatível com PC, Mac e Consoles, Cardioide, Led Vermelho, Preto - 872V1AA</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>R$ 359,99</t>
+          <t>R$ 977,99</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 39,99</t>
+10x de R$ 108,66</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Tampas do console PS5 Sterling Silver - CFI-ZCS2W08Y</t>
+          <t>Game Console Retro Super 3d Games Com 130 Mil Jogos Classicos Com 2 Controles</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>R$ 299,90</t>
+          <t>R$ 299,00</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 33,32</t>
+10x de R$ 29,90</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Tampas do console PS5 Volcanic Red - CFI-ZCS2W07Y</t>
+          <t>Tampas do console PS5 Slim, Chroma Pearl - CFI-ZCS2W12Y</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>R$ 269,10</t>
+          <t>R$ 314,10</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 29,90</t>
+10x de R$ 34,90</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Tampas de Console PlayStation 5, Galactic Purple - 1000030565</t>
+          <t>Tampas de Console PlayStation 5, Nova Pink - 1000030443</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>R$ 299,90</t>
+          <t>R$ 307,70</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 33,32</t>
+10x de R$ 34,18</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Microfone HyperX QuadCast 2, Compatível com PC, Mac e Consoles, Cardioide, Led Vermelho, Preto - 872V1AA</t>
+          <t>Suporte Console Parede Playstation 5 - Ps5 - Material Acrílico Preto</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R$ 977,99</t>
+          <t>R$ 184,90</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 108,66</t>
+7x de R$ 26,41</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Game Console Retro Super 3d Games Com 130 Mil Jogos Classicos Com 2 Controles</t>
+          <t>Tampa Do Console Playstation 5 Midnight Black</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>R$ 299,00</t>
+          <t>R$ 602,10</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 29,90</t>
+10x de R$ 66,90</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Tampas do console PS5 Slim, Chroma Pearl - CFI-ZCS2W12Y</t>
+          <t>Microfone Gamer HyperX QuadCast Podcast, Antivibração, LED, Preto e Vermelho, Compatível com PC, Mac e Consoles - 4P5P6AA</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>R$ 314,10</t>
+          <t>R$ 719,99</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 34,90</t>
+10x de R$ 75,78</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Tampas de Console PlayStation 5, Nova Pink - 1000030443</t>
+          <t>Tampa Do Console Playstation 5 Galactic Purple</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>R$ 307,70</t>
+          <t>R$ 414,90</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 34,18</t>
+10x de R$ 41,48</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Suporte Console Parede Playstation 5 - Ps5 - Material Acrílico Preto</t>
+          <t>Tampa Do Console Playstation 5 Starlight Blue</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>R$ 184,90</t>
+          <t>R$ 341,03</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-7x de R$ 26,41</t>
+10x de R$ 34,79</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Tampa Do Console Playstation 5 Midnight Black</t>
+          <t>Suporte Console Parede Playstation 5 - Ps5 - Material Acrílico Cristal (transparente)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>R$ 602,10</t>
+          <t>R$ 185,90</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 66,90</t>
+7x de R$ 26,55</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Microfone Gamer HyperX QuadCast Podcast, Antivibração, LED, Preto e Vermelho, Compatível com PC, Mac e Consoles - 4P5P6AA</t>
+          <t>Tampa Do Console Playstation 5 Nova Pink</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>R$ 719,99</t>
+          <t>R$ 342,02</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 75,78</t>
+10x de R$ 34,90</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Tampa Do Console Playstation 5 Galactic Purple</t>
+          <t>Tampas de Console PlayStation 5, Starlight Blue - 1000030567</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>R$ 414,90</t>
+          <t>R$ 307,70</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 41,48</t>
+10x de R$ 34,18</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Tampa Do Console Playstation 5 Starlight Blue</t>
+          <t>Jogo Rust Console Edition Xbox One Midia Fisica</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>R$ 341,03</t>
+          <t>R$ 77,90</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 34,79</t>
+3x de R$ 25,96</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Suporte Console Parede Playstation 5 - Ps5 - Material Acrílico Cristal (transparente)</t>
+          <t>Tampas Do Console Ps5 Slim, Midnight Black - Cfi-zcs2w01y</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>R$ 185,90</t>
+          <t>R$ 679,00</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-7x de R$ 26,55</t>
+10x de R$ 67,90</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Tampa Do Console Playstation 5 Nova Pink</t>
+          <t>Adaptador P2 X P3 Headset Fone Microfone E Console Xc-adp-14.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>R$ 342,02</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 34,90</t>
+1x de R$ 4,99</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Jogo Rust Console Edition Xbox One Midia Fisica</t>
+          <t>Tampas Capa Do Console Ps5 Midnight Black Preta Sony Playstation 5</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>R$ 77,90</t>
+          <t>R$ 593,10</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-3x de R$ 25,96</t>
+10x de R$ 65,90</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Tampas de Console PlayStation 5, Starlight Blue - 1000030567</t>
+          <t>Mini Vídeo Game Console Portátil Retrô 9000 Jogos Arcade Cor Preto</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>R$ 307,70</t>
+          <t>R$ 522,49</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 34,18</t>
+10x de R$ 54,99</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Tampas Do Console Ps5 Slim, Midnight Black - Cfi-zcs2w01y</t>
+          <t>Reprodutor Remoto Playstation Portal Para Console Ps5 Sony</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>R$ 679,00</t>
+          <t>R$ 1.450,00</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 67,90</t>
+10x de R$ 145,00</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Adaptador P2 X P3 Headset Fone Microfone E Console Xc-adp-14.</t>
+          <t>Mini Video Game, Console 620 Jogos, Retro</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 228,79</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-1x de R$ 4,99</t>
+10x de R$ 25,99</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Tampas Capa Do Console Ps5 Midnight Black Preta Sony Playstation 5</t>
+          <t>Tampa Skin Para Console Playstation 5 Cobalt Blue Sony</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>R$ 593,10</t>
+          <t>R$ 302,39</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 65,90</t>
+10x de R$ 31,49</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Mini Vídeo Game Console Portátil Retrô 9000 Jogos Arcade Cor Preto</t>
+          <t>Headset Gamer Razer Kaira X, Console e PC, Drivers 50mm, P2, Preto e Verde - RZ04-03970100-R3U1</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>R$ 522,49</t>
+          <t>R$ 558,99</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 54,99</t>
+10x de R$ 65,76</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Reprodutor Remoto Playstation Portal Para Console Ps5 Sony</t>
+          <t>Adaptador P2 X P3 Lelong, Headset, Fone, Microfone E Console</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>R$ 1.450,00</t>
+          <t>R$ 9,11</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 145,00</t>
+1x de R$ 9,11</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Mini Video Game, Console 620 Jogos, Retro</t>
+          <t>Headset Gamer Sem Fio Razer BlackShark V2 Pro Xbox Licensed, Console Esports, NASA Packaging, Preto - RZ0404530300R3</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>R$ 228,79</t>
+          <t>R$ 2.099,99</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 25,99</t>
+10x de R$ 233,33</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Tampa Skin Para Console Playstation 5 Cobalt Blue Sony</t>
+          <t>Controle Thrustmaster Eswap S Pro, Console XBOX - 4460225</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>R$ 302,39</t>
+          <t>R$ 599,00</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 31,49</t>
+10x de R$ 66,55</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Headset Gamer Razer Kaira X, Console e PC, Drivers 50mm, P2, Preto e Verde - RZ04-03970100-R3U1</t>
+          <t>Suporte Vertical Para Consoles Stand Playstation 5</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>R$ 558,99</t>
+          <t>R$ 184,50</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 65,76</t>
+8x de R$ 25,62</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Adaptador P2 X P3 Lelong, Headset, Fone, Microfone E Console</t>
+          <t>Mouse Pad Fábrica Geek Console Atari</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>R$ 9,11</t>
+          <t>R$ 17,71</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-1x de R$ 9,11</t>
+1x de R$ 17,71</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Headset Gamer Sem Fio Razer BlackShark V2 Pro Xbox Licensed, Console Esports, NASA Packaging, Preto - RZ0404530300R3</t>
+          <t>Cooler Fan Ventilador Resfriador P/console De Jogos Ps5 Cor:branco</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>R$ 2.099,99</t>
+          <t>R$ 97,89</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 233,33</t>
+3x de R$ 32,63</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Controle Thrustmaster Eswap S Pro, Console XBOX - 4460225</t>
+          <t>Placa De Captura Externa Para Streaming AverMedia Mini, 1080p60, Para GPU E Consoles, USB e HDMI - GC311</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>R$ 599,00</t>
+          <t>R$ 609,72</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 66,55</t>
+10x de R$ 71,73</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Suporte Vertical Para Consoles Stand Playstation 5</t>
+          <t>Headset Gamer Trust GXT 489 Fayzo, Drivers 50mm, P2, pc, laptop, console de jogos, smartphone, Preto - 24898</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>R$ 184,50</t>
+          <t>R$ 189,99</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-8x de R$ 25,62</t>
+8x de R$ 25,81</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Mouse Pad Fábrica Geek Console Atari</t>
+          <t>Mini Vídeo Game Mp5 X7 Console Portátil Retrô 1000 Jogos</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>R$ 17,71</t>
+          <t>R$ 541,49</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-1x de R$ 17,71</t>
+10x de R$ 56,99</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Placa De Captura Externa Para Streaming AverMedia Mini, 1080p60, Para GPU E Consoles, USB e HDMI - GC311</t>
+          <t>Game Console Retro Super 3d Games Com 130 Mil Jogos Classicos Com 2 Controles</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>R$ 609,72</t>
+          <t>R$ 279,00</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 71,73</t>
+10x de R$ 27,90</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Headset Gamer Trust GXT 489 Fayzo, Drivers 50mm, P2, pc, laptop, console de jogos, smartphone, Preto - 24898</t>
+          <t>Mini Console 620 Jogos Clássicos 8 Bits 2 Controles Bivolt Super Mini Sfc</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>R$ 189,99</t>
+          <t>R$ 129,99</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-8x de R$ 25,81</t>
+5x de R$ 25,99</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Headset Gamer Havit H2002D, Driver 53Mm, Com Cabo P3 3.5mm, Para PC E Consoles Ps4/Ps3 Xbox, Preto</t>
+          <t>Cabo Console Tipo C Para Rj45 Azul 1,80 Metros</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>R$ 329,27</t>
+          <t>R$ 35,58</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 33,59</t>
+1x de R$ 35,58</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Mini Vídeo Game Mp5 X7 Console Portátil Retrô 1000 Jogos</t>
+          <t>Game Console Retro Super 3d Games Com 130 Mil Jogos Classicos Com 2 Controles</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>R$ 541,49</t>
+          <t>R$ 289,00</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 56,99</t>
+10x de R$ 28,90</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Game Console Retro Super 3d Games Com 130 Mil Jogos Classicos Com 2 Controles</t>
+          <t>Cabo Console Type C -tipo C X Rj45 1,8 Metros</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>R$ 279,00</t>
+          <t>R$ 29,00</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 27,90</t>
+1x de R$ 29,00</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Mini Console 620 Jogos Clássicos 8 Bits 2 Controles Bivolt Super Mini Sfc</t>
+          <t>Fone Headset Gamer Razer Kraken X Para Console Branco</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>R$ 129,99</t>
+          <t>R$ 328,83</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-5x de R$ 25,99</t>
+10x de R$ 33,90</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Cabo Console Tipo C Para Rj45 Azul 1,80 Metros</t>
+          <t>Video Game Portátil X6 Handheld Game Console Portátil, 8g, 32g, Pré-instalação, 1500 + Jogos Grátis, Suporte Tv Out, Máquina De Videogame, Boy Player, 4.0 - ATURN SHOP.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>R$ 35,58</t>
+          <t>R$ 199,90</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-1x de R$ 35,58</t>
+7x de R$ 28,55</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Game Console Retro Super 3d Games Com 130 Mil Jogos Classicos Com 2 Controles</t>
+          <t>Kit 2 Baterias Recarregáveis Para Console Psp Slim Série Modelo 2000 3000 3001 3010 Sony Battery Pack</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>R$ 289,00</t>
+          <t>R$ 65,49</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 28,90</t>
+2x de R$ 32,74</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Cabo Console Type C -tipo C X Rj45 1,8 Metros</t>
+          <t>Super Console 500g Gaming Hdd 100000 500g</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>R$ 29,00</t>
+          <t>R$ 531,51</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-1x de R$ 29,00</t>
+10x de R$ 53,15</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Cooler Fan Ventilador Resfriador P/console De Jogos Ps5 Cor:branco</t>
+          <t>SSD WD Black SN850P NVMe, 1TB, Leitura: 7300MB/s e Gravação: 6300MB/s, para consoles PS5, Preto - WDBBYV0010BNC-WRSN</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>R$ 97,89</t>
+          <t>R$ 1.044,99</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-3x de R$ 32,63</t>
+10x de R$ 122,94</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Fone Headset Gamer Razer Kraken X Para Console Branco</t>
+          <t>Headset Gamer Trust GXT 489W Fayzo, Drive 50mm, P3, PC e Console, Branco - 25210</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>R$ 328,83</t>
+          <t>R$ 209,99</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 33,90</t>
+9x de R$ 27,45</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Video Game Portátil X6 Handheld Game Console Portátil, 8g, 32g, Pré-instalação, 1500 + Jogos Grátis, Suporte Tv Out, Máquina De Videogame, Boy Player, 4.0 - ATURN SHOP.</t>
+          <t>Headset Gamer Razer Kraken X For Console P2 / P3 - Green</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>R$ 199,90</t>
+          <t>R$ 367,63</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-7x de R$ 28,55</t>
+10x de R$ 37,90</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Kit 2 Baterias Recarregáveis Para Console Psp Slim Série Modelo 2000 3000 3001 3010 Sony Battery Pack</t>
+          <t>Fone de Ouvido Headset Gamer Evolut Rival, RGB, LED, Para PC, Notebook, Smartphone e Consoles</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>R$ 65,49</t>
+          <t>R$ 69,90</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-2x de R$ 32,74</t>
+3x de R$ 27,41</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Super Console 500g Gaming Hdd 100000 500g</t>
+          <t>Fonte De Alimentação Ac Energia Bivolt Carregador Compativel Com Console Nintendo Switch E Controle</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>R$ 441,10</t>
+          <t>R$ 57,89</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 44,11</t>
+2x de R$ 28,94</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SSD WD Black SN850P NVMe, 1TB, Leitura: 7300MB/s e Gravação: 6300MB/s, para consoles PS5, Preto - WDBBYV0010BNC-WRSN</t>
+          <t>Fonte De Alimentação Ac Energia Bivolt Compativel Com Console XBOX 360 Slim 2 Pinos + Cabo De Força</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>R$ 1.044,99</t>
+          <t>R$ 74,89</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 122,94</t>
+2x de R$ 37,44</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Fone de Ouvido Headset Gamer Evolut Rival, RGB, LED, Para PC, Notebook, Smartphone e Consoles</t>
+          <t>Capa Case Bag Rígida Estojo Compatível Nintendo Switch Console + Película Switch Vidro</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>R$ 69,90</t>
+          <t>R$ 74,49</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-3x de R$ 27,41</t>
+2x de R$ 37,24</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Headset Gamer Trust GXT 489W Fayzo, Drive 50mm, P3, PC e Console, Branco - 25210</t>
+          <t>Adaptador Lelong P3 P2, Combo Fone Microfone Headset Console Celular Notebook Computador Xbox One Play 4</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>R$ 209,99</t>
+          <t>R$ 9,11</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-9x de R$ 27,45</t>
+1x de R$ 9,11</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Headset Gamer Razer Kraken X For Console P2 / P3 - Green</t>
+          <t>Suporte Vertical Fy TP4-19076 Para Console Ps4</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>R$ 367,63</t>
+          <t>R$ 174,71</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 37,90</t>
+7x de R$ 27,12</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Fonte De Alimentação Ac Energia Bivolt Carregador Compativel Com Console Nintendo Switch E Controle</t>
+          <t>Suporte Console Parede Playstation 5 - Ps5 - Material Acrílico Vidro (acrílico Imita Vidro)</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>R$ 57,89</t>
+          <t>R$ 184,00</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-2x de R$ 28,94</t>
+7x de R$ 26,28</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Fonte De Alimentação Ac Energia Bivolt Compativel Com Console XBOX 360 Slim 2 Pinos + Cabo De Força</t>
+          <t>Suporte Console Vertical Para XBOX One Preto Power A</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>R$ 74,89</t>
+          <t>R$ 46,08</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-2x de R$ 37,44</t>
+1x de R$ 46,08</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Capa Case Bag Rígida Estojo Compatível Nintendo Switch Console + Película Switch Vidro</t>
+          <t>Headset Gamer Pro X36, Preto Para Pc, Mobile, Ou Console, Driver 40mm</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>R$ 74,49</t>
+          <t>R$ 158,41</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-2x de R$ 37,24</t>
+6x de R$ 26,40</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Suporte Vertical Fy TP4-19076 Para Console Ps4</t>
+          <t>Adaptador de Teclado e Mouse Redragon Vulcan, Para Console Xbox One, PS4, Nintendo Switch, PS3 - GA-250</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>R$ 174,71</t>
+          <t>R$ 136,80</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-7x de R$ 27,12</t>
+6x de R$ 25,33</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Suporte Console Parede Playstation 5 - Ps5 - Material Acrílico Vidro (acrílico Imita Vidro)</t>
+          <t>Playseat Evolution Sim Racing Cockpit Para Pc E Console</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>R$ 184,00</t>
+          <t>R$ 3.349,00</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-7x de R$ 26,28</t>
+10x de R$ 334,90</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Suporte Console Vertical Para XBOX One Preto Power A</t>
+          <t>Headset Gamer Razer Kraken X Mercury - Para Console E Pc - Conector 3.5mm - Rz04-02890300-r3u1</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>R$ 46,08</t>
+          <t>R$ 934,15</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-1x de R$ 46,08</t>
+10x de R$ 109,90</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Headset Gamer Pro X36, Preto Para Pc, Mobile, Ou Console, Driver 40mm</t>
+          <t>Fone Headset Estéreo Controle Volume Microfone Games Console Pc Notebook Usb Feir Fr-215</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>R$ 158,41</t>
+          <t>R$ 186,55</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-6x de R$ 26,40</t>
+8x de R$ 27,43</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Playseat Evolution Sim Racing Cockpit Para Pc E Console</t>
+          <t>Capa Case Estojo Compatível Nintendo Switch Console + Pelicula Vidro</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>R$ 3.349,00</t>
+          <t>R$ 74,49</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 334,90</t>
+2x de R$ 37,24</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Adaptador de Teclado e Mouse Redragon Vulcan, Para Console Xbox One, PS4, Nintendo Switch, PS3 - GA-250</t>
+          <t>Controle Console Gamer Celular Bluetooth Wireless Android Ios</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>R$ 136,80</t>
+          <t>R$ 149,90</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-6x de R$ 25,33</t>
+5x de R$ 29,98</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Headset Gamer Razer Kraken X Mercury - Para Console E Pc - Conector 3.5mm - Rz04-02890300-r3u1</t>
+          <t>Headset Gamer A+ Plus Tech Tech Ignite, 40mm, P3, Console, PC, Smartphone, e Notebook, Preto - Ap-hs-1995</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>R$ 934,15</t>
+          <t>R$ 199,00</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 109,90</t>
+7x de R$ 28,42</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Fone Headset Estéreo Controle Volume Microfone Games Console Pc Notebook Usb Feir Fr-215</t>
+          <t>Video Game Stick 4k, 10 mil jogos retro, 2 controles sem fio, Console Portátil</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>R$ 186,55</t>
+          <t>R$ 231,20</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-8x de R$ 27,43</t>
+10x de R$ 28,90</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Capa Case Estojo Compatível Nintendo Switch Console + Pelicula Vidro</t>
+          <t>Headset Gamer Redragon Zeus 2 Sakura Edition 7.1, P2, Com Microfone PC e Consoles PS4/Xbox - H510W</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>R$ 74,49</t>
+          <t>R$ 621,70</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-2x de R$ 37,24</t>
+10x de R$ 65,44</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Controle Console Gamer Celular Bluetooth Wireless Android Ios</t>
+          <t>Base Para Console Ps4 Com Carregador Controle Bc-ps4 C3tech</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>R$ 149,90</t>
+          <t>R$ 139,90</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-5x de R$ 29,98</t>
+5x de R$ 27,98</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Headset Gamer A+ Plus Tech Tech Ignite, 40mm, P3, Console, PC, Smartphone, e Notebook, Preto - Ap-hs-1995</t>
+          <t>Gamebit 3.8mm 4.5mm Chave para Abrir Cartuchos e Consoles Nes Snes Nintendo 64 Game Boy</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>R$ 199,00</t>
+          <t>R$ 21,90</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-7x de R$ 28,42</t>
+1x de R$ 21,90</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Video Game Stick 4k, 10 mil jogos retro, 2 controles sem fio, Console Portátil</t>
+          <t>Base De Resfriamento De Ventilador Multifuncional Compative Console De Jogos Ps5</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>R$ 231,20</t>
+          <t>R$ 248,31</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 28,90</t>
+10x de R$ 26,99</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Headset Gamer Redragon Zeus 2 Sakura Edition 7.1, P2, Com Microfone PC e Consoles PS4/Xbox - H510W</t>
+          <t>Suporte Para Tela SXT V2 De 24 Até 43 Polegadas Com Porta PC/Console, Extreme Simracing</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>R$ 621,70</t>
+          <t>R$ 809,00</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 65,44</t>
+10x de R$ 80,90</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Base Para Console Ps4 Com Carregador Controle Bc-ps4 C3tech</t>
+          <t>Headset Gamer Trust GXT 490W Fayzo, RGB, 7.1, Drive 50mm, USB, PC e Console, Branco - 25302</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>R$ 139,90</t>
+          <t>R$ 229,99</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-5x de R$ 27,98</t>
+10x de R$ 27,05</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Adaptador Lelong P3 P2, Combo Fone Microfone Headset Console Celular Notebook Computador Xbox One Play 4</t>
+          <t>Mini Teclado Wireless Keyboard Com Touchpad Com Led Usb Android Console E Tv</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>R$ 9,11</t>
+          <t>R$ 36,71</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-1x de R$ 9,11</t>
+1x de R$ 36,71</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Gamebit 3.8mm 4.5mm Chave para Abrir Cartuchos e Consoles Nes Snes Nintendo 64 Game Boy</t>
+          <t>Video Game X6 Console De Jogo De Mão 10000 Jogos 8GB Memória De Filme Descarregável Mp3 Player/12 Grande Simulador - ATURN SHOP.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>R$ 21,90</t>
+          <t>R$ 199,90</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-1x de R$ 21,90</t>
+7x de R$ 28,55</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Base De Resfriamento De Ventilador Multifuncional Compative Console De Jogos Ps5</t>
+          <t>Suporte para Nintendo Switch Dock Carregador, Dobe Stand Multifuncional para Console e Joystick, 6 slots de armazenamento, Preto - TNS-895</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>R$ 248,31</t>
+          <t>R$ 57,89</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 26,99</t>
+2x de R$ 28,94</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Suporte Para Tela SXT V2 De 24 Até 43 Polegadas Com Porta PC/Console, Extreme Simracing</t>
+          <t>Suporte Parede Console Playstation 4 Pro - Ps4 Pro - Material Acrílico Vidro (acrílico Que Imita Vidro)</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>R$ 809,00</t>
+          <t>R$ 139,90</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 80,90</t>
+5x de R$ 27,98</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Headset Gamer Trust GXT 490W Fayzo, RGB, 7.1, Drive 50mm, USB, PC e Console, Branco - 25302</t>
+          <t>Suporte Parede Console Playstation 4 Slim - Ps4 Slim - Material Acrílico Cristal (transparente)</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>R$ 229,99</t>
+          <t>R$ 139,90</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 27,05</t>
+5x de R$ 27,98</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Mini Teclado Wireless Keyboard Com Touchpad Com Led Usb Android Console E Tv</t>
+          <t>Suporte Parede Console Playstation 3 Slim - Ps3 Slim - Material Acrílico Cristal</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>R$ 36,71</t>
+          <t>R$ 139,90</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-1x de R$ 36,71</t>
+5x de R$ 27,98</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Video Game X6 Console De Jogo De Mão 10000 Jogos 8GB Memória De Filme Descarregável Mp3 Player/12 Grande Simulador - ATURN SHOP.</t>
+          <t>Suporte Parede Console Playstation 4 Slim - Ps4 Slim - Material Acrílico Azul</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>R$ 199,90</t>
+          <t>R$ 139,90</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-7x de R$ 28,55</t>
+5x de R$ 27,98</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Suporte para Nintendo Switch Dock Carregador, Dobe Stand Multifuncional para Console e Joystick, 6 slots de armazenamento, Preto - TNS-895</t>
+          <t>Suporte Parede Console Playstation 4 Slim - Ps4 Slim - Material Acrílico Preto</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>R$ 57,89</t>
+          <t>R$ 139,90</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-2x de R$ 28,94</t>
+5x de R$ 27,98</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 4 Pro - Ps4 Pro - Material Acrílico Vidro (acrílico Que Imita Vidro)</t>
+          <t>Suporte Parede Console Playstation 4 Fat - Ps4 Fat - Material Acrílico Cristal (transparente)</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3227,7 +3227,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 4 Slim - Ps4 Slim - Material Acrílico Cristal (transparente)</t>
+          <t>Suporte Parede Console Playstation 4 Pro - Ps4 Pro - Material Acrílico Cristal (transparente)</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3246,7 +3246,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 3 Slim - Ps3 Slim - Material Acrílico Cristal</t>
+          <t>Suporte Parede Console Playstation 4 Fat - Ps4 Fat - Material Acrílico Azul</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3265,7 +3265,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 4 Slim - Ps4 Slim - Material Acrílico Azul</t>
+          <t>Suporte Parede Console Playstation 3 Super Slim - Ps3 Super Slim - Material Acrílico Preto</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3284,26 +3284,26 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 4 Slim - Ps4 Slim - Material Acrílico Preto</t>
+          <t>Jogo Stellaris, Console Edition, Ps4</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>R$ 139,90</t>
+          <t>R$ 299,00</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-5x de R$ 27,98</t>
+10x de R$ 29,90</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 4 Fat - Ps4 Fat - Material Acrílico Cristal (transparente)</t>
+          <t>Suporte Parede Console Playstation 3 Super Slim - Ps3 Super Slim - Material Acrílico Azul</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3322,7 +3322,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 4 Pro - Ps4 Pro - Material Acrílico Cristal (transparente)</t>
+          <t>Suporte Parede Console Playstation 3 Fat - Ps3 Fat - Material Acrílico Cristal</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3341,7 +3341,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 4 Fat - Ps4 Fat - Material Acrílico Azul</t>
+          <t>Suporte Parede Console Playstation 3 Fat - Ps3 Fat - Material Acrílico Preto</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3360,7 +3360,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 3 Super Slim - Ps3 Super Slim - Material Acrílico Preto</t>
+          <t>Suporte Parede Console Playstation 4 Pro - Ps4 Pro - Material Acrílico Vermelho</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3379,7 +3379,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 3 Super Slim - Ps3 Super Slim - Material Acrílico Azul</t>
+          <t>Suporte Parede Console Playstation 4 Slim - Ps4 Slim - Material Acrílico Vermelho</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3398,7 +3398,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 3 Fat - Ps3 Fat - Material Acrílico Cristal</t>
+          <t>Suporte Parede Console Playstation 3 Super Slim - Ps3 Super Slim - Material Acrílico Vermelho</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3417,7 +3417,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 3 Fat - Ps3 Fat - Material Acrílico Preto</t>
+          <t>Suporte Parede Console Playstation 3 Slim - Ps3 Slim - Material Acrílico Vermelho</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3436,7 +3436,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 4 Fat - Ps4 Fat - Material Acrílico Vidro (acrílico Imita Vidro)</t>
+          <t>Suporte Parede Console Playstation 3 Fat - Ps3 Fat - Material Acrílico Vidro (acrílico Que Imita Vidro)</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3455,7 +3455,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 4 Fat - Ps4 Fat - Material Acrílico Preto</t>
+          <t>Suporte Parede Console Playstation 4 Pro - Ps4 Pro - Material Acrílico Preto</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3474,7 +3474,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 4 Slim - Ps4 Slim - Material Acrílico Vermelho</t>
+          <t>Suporte Parede Console Playstation 4 Fat - Ps4 Fat - Material Acrílico Vermelho</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3493,7 +3493,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 3 Super Slim - Ps3 Super Slim - Material Acrílico Vermelho</t>
+          <t>Suporte Parede Console Playstation 4 Fat - Ps4 Fat - Material Acrílico Vidro (acrílico Imita Vidro)</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3512,7 +3512,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 3 Slim - Ps3 Slim - Material Acrílico Vermelho</t>
+          <t>Suporte Parede Console Playstation 4 Fat - Ps4 Fat - Material Acrílico Preto</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3531,7 +3531,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 3 Fat - Ps3 Fat - Material Acrílico Vidro (acrílico Que Imita Vidro)</t>
+          <t>Suporte Parede Console Playstation 3 Fat - Ps3 Fat - Material Acrílico Preto</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -3550,7 +3550,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 4 Pro - Ps4 Pro - Material Acrílico Preto</t>
+          <t>Suporte Parede Console Playstation 3 Super Slim - Ps3 Super Slim - Material Acrílico Azul</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -3569,7 +3569,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 3 Slim - Ps3 Slim - Material Acrílico Vidro (acrílico Que Imita Vidro)</t>
+          <t>Suporte Parede Console Playstation 3 Fat - Ps3 Fat - Material Acrílico Cristal</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -3588,7 +3588,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 3 Fat - Ps3 Fat - Material Acrílico Vermelho</t>
+          <t>Suporte Parede Console Playstation 3 Super Slim - Ps3 Super Slim - Material Acrílico Cristal</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -3607,7 +3607,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 4 Fat - Ps4 Fat - Material Acrílico Vidro (acrílico Imita Vidro)</t>
+          <t>Suporte Parede Console Playstation 4 Slim - Ps4 Slim - Material Acrílico Vidro (acrílico Imitando Vidro)</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -3626,7 +3626,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 4 Fat - Ps4 Fat - Material Acrílico Preto</t>
+          <t>Suporte Parede Console Playstation 3 Slim - Ps3 Slim - Material Acrílico Azul</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -3645,7 +3645,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 4 Fat - Ps4 Fat - Material Acrílico Vermelho</t>
+          <t>Suporte Parede Console Playstation 3 Super Slim - Ps3 Super Slim - Material Acrílico Vidro (acrílico Que Imita Vidro)</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -3664,7 +3664,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 4 Pro - Ps4 Pro - Material Acrílico Preto</t>
+          <t>Suporte Parede Console Playstation 3 Slim - Ps3 Slim - Material Acrílico Preto</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -3683,7 +3683,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 3 Slim - Ps3 Slim - Material Acrílico Azul</t>
+          <t>Suporte Parede Console Playstation 3 Fat - Ps3 Fat - Material Acrílico Azul</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -3702,1098 +3702,1003 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 4 Slim - Ps4 Slim - Material Acrílico Vidro (acrílico Imitando Vidro)</t>
+          <t>Headset Gamer Corsair HS35 V2, Neodímio de 50mm, Com Microfone, Para PC, Mac, Consoles e Celulares, Preto - CA-9011377-NA</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>R$ 139,90</t>
+          <t>R$ 399,99</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-5x de R$ 27,98</t>
+10x de R$ 44,44</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 3 Super Slim - Ps3 Super Slim - Material Acrílico Vidro (acrílico Que Imita Vidro)</t>
+          <t>Cartão De Memória Sandisk Nintendo Switch Microsd 128GB, Licenciado Oficialmente Para O Console Nintendo Switch, Sdsqxao-128g-gnczn Sandisk</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>R$ 139,90</t>
+          <t>R$ 165,00</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-5x de R$ 27,98</t>
+6x de R$ 27,50</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 3 Slim - Ps3 Slim - Material Acrílico Preto</t>
+          <t>Fonte Power Para Console Wii, Bivolt 110-240v + Cabo Força</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>R$ 139,90</t>
+          <t>R$ 63,93</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-5x de R$ 27,98</t>
+2x de R$ 31,96</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 3 Fat - Ps3 Fat - Material Acrílico Azul</t>
+          <t>Usb Cabo Rs232 Ugreen Console Do Cabo Rj45 Para O Roteador Cabo Do Console 1.5m</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>R$ 139,90</t>
+          <t>R$ 313,63</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-5x de R$ 27,98</t>
+10x de R$ 33,01</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Suporte Parede Console Playstation 3 Super Slim - Ps3 Super Slim - Material Acrílico Cristal</t>
+          <t>HD Externo Portátil WD Consoles Pc Notebooks 1 terabyte</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>R$ 139,90</t>
+          <t>R$ 543,10</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-5x de R$ 27,98</t>
+10x de R$ 55,98</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Headset Gamer Corsair HS35 V2, Neodímio de 50mm, Com Microfone, Para PC, Mac, Consoles e Celulares, Preto - CA-9011377-NA</t>
+          <t>Vídeo Game Portátil Mini Console Jogos Retrô Clássico Pvp Station Light 3000</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>R$ 399,99</t>
+          <t>R$ 190,08</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 44,44</t>
+7x de R$ 28,28</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Cartão De Memória Sandisk Nintendo Switch Microsd 128GB, Licenciado Oficialmente Para O Console Nintendo Switch, Sdsqxao-128g-gnczn Sandisk</t>
+          <t>Mesa De Som Temtec Mixer Console, 7 Canais, Retorno Profissional</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>R$ 165,00</t>
+          <t>R$ 1.053,32</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-6x de R$ 27,50</t>
+10x de R$ 105,33</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Fonte Power Para Console Wii, Bivolt 110-240v + Cabo Força</t>
+          <t>Vídeo Game Portátil Mini Console Jogos Retrô Clássico Wanle Sup 500 Em 1</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>R$ 63,93</t>
+          <t>R$ 61,44</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-2x de R$ 31,96</t>
+2x de R$ 32,00</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Usb Cabo Rs232 Ugreen Console Do Cabo Rj45 Para O Roteador Cabo Do Console 1.5m</t>
+          <t>Mini Game Brick 9999 Em 1 Console Portátil Retro Tetris Cor:laranja</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>R$ 313,63</t>
+          <t>R$ 19,13</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 33,01</t>
+1x de R$ 20,25</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>HD Externo Portátil WD Consoles Pc Notebooks 1 terabyte</t>
+          <t>Fonte Carregador Compatível Console Nintendo Nes Nintendinho Playtronic</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>R$ 543,10</t>
+          <t>R$ 180,49</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 55,98</t>
+7x de R$ 27,14</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Vídeo Game Portátil Mini Console Jogos Retrô Clássico Pvp Station Light 3000</t>
+          <t>Fonte Carregador Compatível Console Mega Drive E Phantom System</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>R$ 190,08</t>
+          <t>R$ 189,99</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-7x de R$ 28,28</t>
+7x de R$ 28,57</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Mesa De Som Temtec Mixer Console, 7 Canais, Retorno Profissional</t>
+          <t>Fonte Carregador Compativel Console Nintendo Dsi, 2ds, 3ds, New 2ds 3ds, Xl</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>R$ 1.053,32</t>
+          <t>R$ 189,99</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 105,33</t>
+7x de R$ 28,57</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Vídeo Game Portátil Mini Console Jogos Retrô Clássico Wanle Sup 500 Em 1</t>
+          <t>Fonte Carregador Compativel Console Nintendo Ds Lite Ndsl</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>R$ 61,44</t>
+          <t>R$ 189,99</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-2x de R$ 32,00</t>
+7x de R$ 28,57</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Mini Game Brick 9999 Em 1 Console Portátil Retro Tetris Cor:laranja</t>
+          <t>Fonte Carregador Compatível Console Nintendo Gamecube</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>R$ 19,13</t>
+          <t>R$ 284,99</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-1x de R$ 20,25</t>
+10x de R$ 29,99</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Fonte Carregador Compatível Console Nintendo Nes Nintendinho Playtronic</t>
+          <t>Cabo Av Áudio E Vídeo Rca, Para Console Nintendo Wii</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>R$ 180,49</t>
+          <t>R$ 96,79</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-7x de R$ 27,14</t>
+4x de R$ 27,49</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Fonte Carregador Compatível Console Mega Drive E Phantom System</t>
+          <t>Case Externo Gamer De Hd 3,5 P/ Console Pro-z Hddgu3-pro-z Avolusion</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>R$ 189,99</t>
+          <t>R$ 311,38</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-7x de R$ 28,57</t>
+10x de R$ 33,12</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Fonte Carregador Compativel Console Nintendo Dsi, 2ds, 3ds, New 2ds 3ds, Xl</t>
+          <t>Retro Estação Pvp Pxp Sup Jogos Console De Vídeo Game Portátil X6 - ATURN SHOP.</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>R$ 189,99</t>
+          <t>R$ 199,90</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-7x de R$ 28,57</t>
+7x de R$ 28,55</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Fonte Carregador Compativel Console Nintendo Ds Lite Ndsl</t>
+          <t>Cooler Fan Ventilador Resfriador P/console De Jogos Ps5 Cor:preto</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>R$ 189,99</t>
+          <t>R$ 97,89</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-7x de R$ 28,57</t>
+3x de R$ 32,63</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Fonte Carregador Compatível Console Nintendo Gamecube</t>
+          <t>Fonte Carregador 2 Pinos Compatível Console XBOX 360 Slim</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>R$ 284,99</t>
+          <t>R$ 227,99</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 29,99</t>
+9x de R$ 26,66</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Cabo Av Áudio E Vídeo Rca, Para Console Nintendo Wii</t>
+          <t>Fonte Carregador 2 Pinos Compatível Console XBOX One</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>R$ 96,79</t>
+          <t>R$ 265,99</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-4x de R$ 27,49</t>
+10x de R$ 27,99</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Case Externo Gamer De Hd 3,5 P/ Console Pro-z Hddgu3-pro-z Avolusion</t>
+          <t>Capa Case Estojo Para Nintendo Switch Console + Pelicula Vdr</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>R$ 311,38</t>
+          <t>R$ 74,49</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 33,12</t>
+2x de R$ 37,24</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Retro Estação Pvp Pxp Sup Jogos Console De Vídeo Game Portátil X6 - ATURN SHOP.</t>
+          <t>Fonte Alimentação Carregador Compatível Console Nintendo Wii U</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>R$ 199,90</t>
+          <t>R$ 208,99</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-7x de R$ 28,55</t>
+8x de R$ 27,49</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Cooler Fan Ventilador Resfriador P/console De Jogos Ps5 Cor:preto</t>
+          <t>Fonte Alimentação Carregador Compatível Console Nintendo Wii</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>R$ 97,89</t>
+          <t>R$ 189,99</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-3x de R$ 32,63</t>
+7x de R$ 28,57</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Fonte Carregador 2 Pinos Compatível Console XBOX 360 Slim</t>
+          <t>Kit 2 Peliculas De Vidro Protetora 9h Para Console Nintendo New 2ds Xl E Ll Para Tela Superior Inferior</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>R$ 227,99</t>
+          <t>R$ 46,49</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-9x de R$ 26,66</t>
+1x de R$ 46,49</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Fonte Carregador 2 Pinos Compatível Console XBOX One</t>
+          <t>SSD WD Black Sn580p 1TB Nvme M.2, 2280 Para Consoles PS5 - Wdbbyv0010bnc-wrsn</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>R$ 265,99</t>
+          <t>R$ 1.159,00</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 27,99</t>
+10x de R$ 115,90</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Capa Case Estojo Para Nintendo Switch Console + Pelicula Vdr</t>
+          <t>Controle Sem Fio 3 Em 1 Bluetooth Para Jogos E Consoles</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>R$ 74,49</t>
+          <t>R$ 190,93</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-2x de R$ 37,24</t>
+7x de R$ 27,27</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Fonte Alimentação Carregador Compatível Console Nintendo Wii U</t>
+          <t>Headset Gamer G311 Ear Surround Sound Noise LED PC Console</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>R$ 208,99</t>
+          <t>R$ 126,00</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-8x de R$ 27,49</t>
+5x de R$ 25,98</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Fonte Alimentação Carregador Compatível Console Nintendo Wii</t>
+          <t>Placa De Captura Live Gamer Mini - Gc311 - Indicada Para Gpu E Consoles</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>R$ 189,99</t>
+          <t>R$ 776,03</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-7x de R$ 28,57</t>
+10x de R$ 81,68</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Kit 2 Peliculas De Vidro Protetora 9h Para Console Nintendo New 2ds Xl E Ll Para Tela Superior Inferior</t>
+          <t>Suporte Dock De Carregamento Base Carregador Compativel Com Console Steam Deck 3 Entradas Usb</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>R$ 46,49</t>
+          <t>R$ 97,89</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-1x de R$ 46,49</t>
+3x de R$ 32,63</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>SSD WD Black Sn580p 1TB Nvme M.2, 2280 Para Consoles PS5 - Wdbbyv0010bnc-wrsn</t>
+          <t>Case Para Hd Externo Slim 2.5" Transparente Usb 3.0 Sata Para PC Notebook E Consoles</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>R$ 1.159,00</t>
+          <t>R$ 29,90</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 115,90</t>
+1x de R$ 29,90</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Controle Sem Fio 3 Em 1 Bluetooth Para Jogos E Consoles</t>
+          <t>Controle Com Fio Para Jogos De Luta Hori Alpha Para Ps4, Ps5 E PC Licenciado Para Consoles Sony</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>R$ 190,93</t>
+          <t>R$ 2.199,00</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-7x de R$ 27,27</t>
+10x de R$ 219,90</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Headset Gamer G311 Ear Surround Sound Noise LED PC Console</t>
+          <t>Teclado Semi-Mecânico Gamer ARGB + Mouse Gamer ARGB DPi -Computador Notebook E Vídeogame</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>R$ 126,00</t>
+          <t>R$ 74,38</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-5x de R$ 25,98</t>
+3x de R$ 25,30</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Placa De Captura Live Gamer Mini - Gc311 - Indicada Para Gpu E Consoles</t>
+          <t>Kit Gamer Teclado Semi-mecânico + Mouse RGB 3200 Dpi + Mouse Pad + Headset - Compatível Com Computador Notebook E Vídeogame</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>R$ 776,03</t>
+          <t>R$ 161,42</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 81,68</t>
+7x de R$ 27,12</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Suporte Dock De Carregamento Base Carregador Compativel Com Console Steam Deck 3 Entradas Usb</t>
+          <t>Mouse Gamer Knup, Óptico, LED, USB, PC, Computador, Videogame</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>R$ 97,89</t>
+          <t>R$ 42,42</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-3x de R$ 32,63</t>
+1x de R$ 44,91</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Case Para Hd Externo Slim 2.5" Transparente Usb 3.0 Sata Para PC Notebook E Consoles</t>
+          <t>Mini Videogame Portátil Com Teclado 400 Jogos Integrados</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>R$ 29,90</t>
+          <t>R$ 59,00</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-1x de R$ 29,90</t>
+2x de R$ 29,50</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Controle Com Fio Para Jogos De Luta Hori Alpha Para Ps4, Ps5 E PC Licenciado Para Consoles Sony</t>
+          <t>Controlador De Videogame Lite Retrô Clássico, Sem Fio, Gamepad 4k</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>R$ 2.199,00</t>
+          <t>R$ 347,99</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 219,90</t>
+10x de R$ 39,99</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Kit Gamer Teclado Semi-mecânico + Mouse RGB 3200 Dpi + Mouse Pad + Headset - Compatível Com Computador Notebook E Vídeogame</t>
+          <t>Jogo Monster Energy Supercross, The Official Videogame 5 - PS4</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>R$ 161,42</t>
+          <t>R$ 167,00</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-7x de R$ 27,12</t>
+6x de R$ 27,83</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Teclado Semi-Mecânico Gamer ARGB + Mouse Gamer ARGB DPi -Computador Notebook E Vídeogame</t>
+          <t>Teclado Gamer Semi Mecânico LED RGB Abnt2 Usb PC Videogame</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>R$ 74,38</t>
+          <t>R$ 99,90</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-3x de R$ 25,30</t>
+4x de R$ 29,38</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Mouse Gamer Knup, Óptico, LED, USB, PC, Computador, Videogame</t>
+          <t>LEGO NINJAGO O Filme Videogame para Xbox One</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>R$ 42,42</t>
+          <t>R$ 113,99</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-1x de R$ 44,91</t>
+4x de R$ 29,99</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Controlador De Videogame Lite Retrô Clássico, Sem Fio, Gamepad 4k</t>
+          <t>Videogame Portatil Sup Game Box Power M3, Preto</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>R$ 347,99</t>
+          <t>R$ 633,59</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 39,99</t>
+10x de R$ 65,99</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Mini Videogame Portátil Com Teclado 400 Jogos Integrados</t>
+          <t>Jogo Uma Aventura Lego 2 Videogame - Xbox One</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>R$ 59,00</t>
+          <t>R$ 66,49</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-2x de R$ 29,50</t>
+2x de R$ 34,99</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Jogo Monster Energy Supercross, The Official Videogame 5 - PS4</t>
+          <t>Mini Teclado Touch H'maston, Luz Colorida, Sem Fio, Para Tv, Videogame, Notebook - Jp-25</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>R$ 167,00</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-6x de R$ 27,83</t>
+1x de R$ 39,99</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Teclado Gamer Semi Mecânico LED RGB Abnt2 Usb PC Videogame</t>
+          <t>Carregador Ps5 Para 2 Controles Videogame Base Carregamento</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>R$ 99,90</t>
+          <t>R$ 169,90</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-4x de R$ 29,38</t>
+6x de R$ 28,31</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>LEGO NINJAGO O Filme Videogame para Xbox One</t>
+          <t>Fone De Ouvido Headset Gamer RGB LED PC Computador Vídeogame</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>R$ 113,99</t>
+          <t>R$ 78,90</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-4x de R$ 29,99</t>
+3x de R$ 26,30</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Videogame Portatil Sup Game Box Power M3, Preto</t>
+          <t>The Lego Movie Videogame para Xbox One</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>R$ 633,59</t>
+          <t>R$ 94,99</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 65,99</t>
+3x de R$ 33,33</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Jogo Uma Aventura Lego 2 Videogame - Xbox One</t>
+          <t>Jogo The Lego Movie Videogame 2 - Xbox One Mídia Física</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>R$ 66,49</t>
+          <t>R$ 59,90</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-2x de R$ 34,99</t>
+2x de R$ 29,95</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Mini Teclado Touch H'maston, Luz Colorida, Sem Fio, Para Tv, Videogame, Notebook - Jp-25</t>
+          <t>Videogame Portatil Altomex At-582</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>R$ 246,90</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-1x de R$ 39,99</t>
+10x de R$ 25,99</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Fone De Ouvido Headset Gamer RGB LED PC Computador Vídeogame</t>
+          <t>Videogame Portátil Game Box Power M3.</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>R$ 78,90</t>
+          <t>R$ 329,90</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-3x de R$ 26,30</t>
+10x de R$ 32,98</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Carregador Ps5 Para 2 Controles Videogame Base Carregamento</t>
+          <t>Jogo Mxgp The Official Motocross Videogame Ps3 Novo</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>R$ 169,90</t>
+          <t>R$ 199,00</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-6x de R$ 28,31</t>
+7x de R$ 28,42</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>The Lego Movie Videogame para Xbox One</t>
+          <t>The Lego Movie Videogame para Xbox One - Warner</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>R$ 94,99</t>
+          <t>R$ 55,94</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-3x de R$ 33,33</t>
+2x de R$ 27,97</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Jogo The Lego Movie Videogame 2 - Xbox One Mídia Física</t>
+          <t>Jogo LEGO Ninjago: O Filme - Videogame - PS4</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>R$ 59,90</t>
+          <t>R$ 116,10</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-2x de R$ 29,95</t>
+5x de R$ 25,80</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Videogame Portatil Altomex At-582</t>
+          <t>Jogo LEGO, Ninjago: O Filme - Videogame, Xbox One</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>R$ 246,90</t>
+          <t>R$ 62,17</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
-10x de R$ 25,99</t>
+2x de R$ 32,72</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Videogame Portátil Game Box Power M3.</t>
+          <t>Jogo The Lego Movie Videogame - Ps4</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>R$ 329,90</t>
+          <t>R$ 69,00</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
-        <is>
-          <t>À vista no PIX
-ou até
-10x de R$ 32,98</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>The Lego Movie Videogame para Xbox One - Warner</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>R$ 55,94</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>À vista no PIX
-ou até
-2x de R$ 27,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Jogo Mxgp The Official Motocross Videogame Ps3 Novo</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>R$ 199,00</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>À vista no PIX
-ou até
-7x de R$ 28,42</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>Jogo LEGO Ninjago: O Filme - Videogame - PS4</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>R$ 116,10</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>À vista no PIX
-ou até
-5x de R$ 25,80</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>Jogo LEGO, Ninjago: O Filme - Videogame, Xbox One</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>R$ 62,17</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>À vista no PIX
-ou até
-2x de R$ 32,72</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Jogo The Lego Movie Videogame - Ps4</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>R$ 69,00</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
         <is>
           <t>À vista no PIX
 ou até
